--- a/tests/_end_to_end_tests/main-treasury-temp/user_data__no_settings__expected_trn.xlsx
+++ b/tests/_end_to_end_tests/main-treasury-temp/user_data__no_settings__expected_trn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\e3\@gitwk\EfPrivate\EfDev3.STEX\financialmodel.test\005\_startup.Tests.Assets\9a10-reports-loan-positive and negative, final zero value, expired [REL]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\e3\@gitwk\PUBLIC\financial-modeling\tests\_end_to_end_tests\main-treasury-temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547B51FD-B96F-4ED6-8FB7-6E2A3B638610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F103F551-46C4-4BF4-88E9-A86A424510B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,32 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Stefano Spinucci</author>
-  </authors>
-  <commentList>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{BFAA5BCF-FAF5-4CFA-A553-1E97A559A1B6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>schedule + e - con saldo zero; il report ignora il piano di ammortamento, essendo il saldo zero</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
   <si>
     <t>Type</t>
   </si>
@@ -344,9 +320,6 @@
     <t>IS_Link__SimObjId</t>
   </si>
   <si>
-    <t>banca</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -425,33 +398,23 @@
     <t>[]</t>
   </si>
   <si>
-    <t>credito v/qualcuno</t>
-  </si>
-  <si>
-    <t>['2020-10-31', '2020-12-31', '2022-10-31', '2022-12-31']</t>
-  </si>
-  <si>
-    <t>[20, -30, 30, -20]</t>
+    <t>BS_CREDIT__TRADERECEIVABLECREDITS</t>
+  </si>
+  <si>
+    <t>BS_CASH__BANKACCOUNT_FINANCIALACCOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -761,11 +724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,13 +773,13 @@
         <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>74</v>
@@ -831,7 +794,7 @@
         <v>85</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>86</v>
@@ -846,10 +809,10 @@
         <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>90</v>
@@ -861,7 +824,7 @@
         <v>92</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>93</v>
@@ -869,28 +832,25 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>43831</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>44926</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>77</v>
@@ -899,10 +859,10 @@
         <v>83</v>
       </c>
       <c r="L2" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M2" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N2" s="1" t="b">
         <v>1</v>
@@ -914,39 +874,36 @@
         <v>1</v>
       </c>
       <c r="T2" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>43831</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>44926</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>76</v>
@@ -955,10 +912,10 @@
         <v>83</v>
       </c>
       <c r="L3" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M3" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N3" s="1" t="b">
         <v>1</v>
@@ -970,39 +927,36 @@
         <v>1</v>
       </c>
       <c r="T3" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>43832</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>44926</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>77</v>
@@ -1011,10 +965,10 @@
         <v>83</v>
       </c>
       <c r="L4" s="1">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="M4" s="1">
-        <v>-10</v>
+        <v>150</v>
       </c>
       <c r="N4" s="1" t="b">
         <v>1</v>
@@ -1026,33 +980,36 @@
         <v>2</v>
       </c>
       <c r="T4" s="1">
-        <v>20</v>
+        <v>150</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>43832</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>44926</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>76</v>
@@ -1061,10 +1018,10 @@
         <v>83</v>
       </c>
       <c r="L5" s="1">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="M5" s="1">
-        <v>-10</v>
+        <v>150</v>
       </c>
       <c r="N5" s="1" t="b">
         <v>1</v>
@@ -1076,245 +1033,33 @@
         <v>2</v>
       </c>
       <c r="T5" s="1">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43833</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="1">
-        <v>40</v>
-      </c>
-      <c r="M6" s="1">
-        <v>20</v>
-      </c>
-      <c r="N6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>4</v>
-      </c>
-      <c r="T6" s="1">
-        <v>40</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43833</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="1">
-        <v>40</v>
-      </c>
-      <c r="M7" s="1">
-        <v>20</v>
-      </c>
-      <c r="N7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>4</v>
-      </c>
-      <c r="T7" s="1">
-        <v>40</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43834</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>-40</v>
-      </c>
-      <c r="N8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>5</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>43834</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>-40</v>
-      </c>
-      <c r="N9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>5</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C11" s="2"/>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{AB19264D-B001-4ED8-8424-C24646E657DE}">
       <formula1>32874</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576 Q1:Q1048576 O1:O1048576 W1:W1048576" xr:uid="{E4E5A8A6-2134-43B1-953D-50DC1572C02D}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576 O1:O1048576 Q1:Q1048576 L1:M1048576" xr:uid="{E4E5A8A6-2134-43B1-953D-50DC1572C02D}">
       <formula1>-999999999</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -1322,7 +1067,7 @@
           <x14:formula1>
             <xm:f>SimObjectTypeEnum!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A6 A4 A1:A2 A8 A10 A12:A1048576</xm:sqref>
+          <xm:sqref>A8:A1048576 A1:A2 A6 A4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4A2F9F0C-FED0-410A-BE34-4A4614985769}">
           <x14:formula1>
@@ -1378,12 +1123,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
@@ -1418,7 +1163,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
@@ -1473,47 +1218,47 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
@@ -1638,7 +1383,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
@@ -1678,12 +1423,12 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
@@ -1778,12 +1523,12 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
